--- a/countries_by_continents_update.xlsx
+++ b/countries_by_continents_update.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="213">
   <si>
     <t>Continent</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>Saint Helena (British)</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Worldwide</t>
   </si>
 </sst>
 </file>
@@ -1475,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B204"/>
+  <dimension ref="A1:B205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="D196" sqref="D196"/>
+      <selection activeCell="F204" sqref="F204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3119,6 +3125,14 @@
         <v>210</v>
       </c>
     </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>211</v>
+      </c>
+      <c r="B205" t="s">
+        <v>212</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B197"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/countries_by_continents_update.xlsx
+++ b/countries_by_continents_update.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="215">
   <si>
     <t>Continent</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>Worldwide</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>New Guinea</t>
   </si>
 </sst>
 </file>
@@ -1481,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B205"/>
+  <dimension ref="A1:B207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="F204" sqref="F204"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="A206" sqref="A206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -3127,10 +3133,26 @@
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
+        <v>212</v>
+      </c>
+      <c r="B205" t="s">
         <v>211</v>
       </c>
-      <c r="B205" t="s">
-        <v>212</v>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>152</v>
+      </c>
+      <c r="B206" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>176</v>
+      </c>
+      <c r="B207" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
